--- a/src/renderer/public/file_templates/samples.xlsx
+++ b/src/renderer/public/file_templates/samples.xlsx
@@ -368,9 +368,9 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="topLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
